--- a/biology/Zoologie/Hyla_imitator/Hyla_imitator.xlsx
+++ b/biology/Zoologie/Hyla_imitator/Hyla_imitator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Hyla" imitator est une espèce d'amphibiens de la famille des Hylidae dont la position taxonomique est incertaine (Incertae sedis)[1]. Depuis la redéfinition du genre Hyla, il est évident que H. imitator n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle. Il s'agit de Dendropsophus imitator (Barbour &amp; Dunn, 1921) pour amphibiaweb[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Hyla" imitator est une espèce d'amphibiens de la famille des Hylidae dont la position taxonomique est incertaine (Incertae sedis). Depuis la redéfinition du genre Hyla, il est évident que H. imitator n'appartient pas à ce genre mais aucun autre genre n'a pour l'instant été proposé de manière formelle. Il s'agit de Dendropsophus imitator (Barbour &amp; Dunn, 1921) pour amphibiaweb.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Codajás dans l'État d'Amazonas au Brésil[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Codajás dans l'État d'Amazonas au Brésil,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Barbour &amp; Dunn, 1921 : Herpetological novelties. Proceedings of the Biological Society of Washington, vol. 34, p. 157-162 (texte intégral).</t>
         </is>
